--- a/chapter2/Chapter2-1b.xlsx
+++ b/chapter2/Chapter2-1b.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A83B94-E865-458B-83A9-41A1F5360854}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="temp-sale" sheetId="1" r:id="rId1"/>
-    <sheet name="LeastSquareApproximation" sheetId="3" r:id="rId2"/>
-    <sheet name="LINEST" sheetId="4" r:id="rId3"/>
-    <sheet name="DataAnalysis" sheetId="5" r:id="rId4"/>
+    <sheet name="LeastSquareApproximation" sheetId="2" r:id="rId2"/>
+    <sheet name="LINEST" sheetId="3" r:id="rId3"/>
+    <sheet name="DataAnalysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+  <si>
+    <t>SUM(X)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>SUM(Y)</t>
+  </si>
+  <si>
+    <t>SUM(XY)</t>
+  </si>
+  <si>
+    <t>SUM(X^2)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Scoring Data</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
   <si>
     <t>Temperature (F)</t>
   </si>
@@ -37,127 +69,112 @@
     <t>Ice Cream Sale (dollar in thousand)</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>sum(x)</t>
-  </si>
-  <si>
-    <t>sum(y)</t>
-  </si>
-  <si>
-    <t>sum(xy)</t>
-  </si>
-  <si>
-    <t>sum(x^2)</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>n=</t>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
   <si>
     <t>m=</t>
   </si>
   <si>
     <t>b=</t>
-  </si>
-  <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
-  </si>
-  <si>
-    <t>X Variable 1</t>
-  </si>
-  <si>
-    <t>To be predicted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,21 +212,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -224,17 +232,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -246,18 +248,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,6 +294,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -330,7 +335,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'temp-sale'!$B$9</c:f>
+              <c:f>'temp-sale'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -375,6 +380,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -407,7 +413,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'temp-sale'!$A$10:$A$17</c:f>
+              <c:f>'temp-sale'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -440,7 +446,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'temp-sale'!$B$10:$B$17</c:f>
+              <c:f>'temp-sale'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -474,7 +480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70BE-4F29-9818-AF7B1FC32640}"/>
+              <c16:uniqueId val="{00000000-C9E5-49A8-9072-4B8188C15208}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -486,11 +492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1571093167"/>
-        <c:axId val="1571093999"/>
+        <c:axId val="1094286464"/>
+        <c:axId val="1094288544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1571093167"/>
+        <c:axId val="1094286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,11 +537,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Temperatures (F)</a:t>
+                  <a:t>Temperature(F)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -602,12 +609,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1571093999"/>
+        <c:crossAx val="1094288544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1571093999"/>
+        <c:axId val="1094288544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,6 +660,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -719,7 +727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1571093167"/>
+        <c:crossAx val="1094286464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1328,101 +1336,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="76200"/>
-          <a:ext cx="5219700" cy="1238250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>In a southern</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> town near a beautiful beach, the manager of a supermarket discovered a relationship between the weekly averaged daily high temperatures and the ice cream sale during summer seasons. He is now using the data he has accumulated to predict the stores ice creamsales.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1702,127 +1629,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>91</v>
       </c>
-      <c r="B10">
+      <c r="B2" s="2">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>87</v>
       </c>
-      <c r="B11">
+      <c r="B3" s="2">
         <v>90.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>86</v>
       </c>
-      <c r="B12">
+      <c r="B4" s="2">
         <v>81.099999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>88</v>
       </c>
-      <c r="B13">
+      <c r="B5" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>92.8</v>
       </c>
-      <c r="B14">
+      <c r="B6" s="2">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>95.2</v>
       </c>
-      <c r="B15">
+      <c r="B7" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>93.3</v>
       </c>
-      <c r="B16">
+      <c r="B8" s="2">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>97.7</v>
       </c>
-      <c r="B17">
+      <c r="B9" s="2">
         <v>132.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="D11">
         <v>3.8393999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>88.8</v>
       </c>
-      <c r="B21" s="7">
-        <f>$C$20*A21+$C$21</f>
+      <c r="B12" s="4">
+        <f>D$11*A12+D$12</f>
         <v>87.768720000000002</v>
       </c>
-      <c r="C21">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
         <v>-253.17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>96.9</v>
       </c>
-      <c r="B22" s="7">
-        <f>$C$20*A22+$C$21</f>
+      <c r="B13" s="4">
+        <f>D$11*A13+D$12</f>
         <v>118.86786000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>94.7</v>
       </c>
-      <c r="B23" s="7">
-        <f>$C$20*A23+$C$21</f>
+      <c r="B14" s="4">
+        <f>D$11*A14+D$12</f>
         <v>110.42118000000002</v>
       </c>
     </row>
@@ -1833,690 +1794,688 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>91</v>
       </c>
       <c r="B2" s="2">
         <v>89.8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <f>SUM(A:A)</f>
         <v>731</v>
       </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
         <f>SUM(B:B)</f>
         <v>781.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2">
-        <v>90.2</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>88</v>
       </c>
       <c r="B5" s="2">
         <v>83</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
         <f>SUMPRODUCT(A:A, B:B)</f>
         <v>71851.77</v>
       </c>
-      <c r="D5" s="2">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>92.8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90.9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <f>SUMPRODUCT(A:A,A:A)</f>
         <v>66915.06</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>92.8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>95.2</v>
       </c>
       <c r="B7" s="2">
         <v>119</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <f>COUNT(A:A)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>93.3</v>
       </c>
       <c r="B8" s="2">
         <v>94.9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <f>(D7*C5-C2*D2)/(D7*D5-C2^2)</f>
+        <f>(D7*D5-D3*D4)/(D7*D6-D3^2)</f>
         <v>3.8394338600076852</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>97.7</v>
       </c>
       <c r="B9" s="2">
         <v>132.4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <f>(D5*D2-C2*C5)/(D7*D5-C2^2)</f>
+        <f>(D6*D4-D3*D5)/(D7*D6-D3^2)</f>
         <v>-253.16576895819699</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>88.8</v>
       </c>
-      <c r="D12" s="9">
-        <f>D$8 * C12 + D$9</f>
+      <c r="D12" s="4">
+        <f>D$8*C12 + D$9</f>
         <v>87.775957810485437</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>96.9</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" ref="D13:D14" si="0">D$8 * C13 + D$9</f>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:D14" si="0">D$8*C13 + D$9</f>
         <v>118.87537207654773</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>94.7</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>110.42861758453083</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>91</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>89.8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>87</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>90.2</v>
       </c>
-      <c r="C3" s="2">
-        <f t="array" ref="C3:D3">LINEST(B2:B9, A2:A9, TRUE, TRUE)</f>
+      <c r="C3" s="6">
+        <f t="array" ref="C3:D3">LINEST(B2:B9,A2:A9,TRUE,TRUE)</f>
         <v>3.8394338600075044</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>-253.16576895818574</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>86</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>81.099999999999994</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>88</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>83</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>92.8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>90.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>95.2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>119</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>93.3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>94.9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>97.7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>132.4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>91</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>89.8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>87</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>90.2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>86</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>81.099999999999994</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>88</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>83</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>0.87255780431828578</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>92.8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>90.9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>0.76135712187674787</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>95.2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>119</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>0.72158330885620581</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>93.3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>94.9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>9.6104686632086587</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>97.7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>132.4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1767.9921024409068</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1767.9921024409068</v>
+      </c>
+      <c r="H13" s="8">
+        <v>19.142170791709834</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4.6926416967747698E-3</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="E14" s="8">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8">
+        <v>554.16664755909369</v>
+      </c>
+      <c r="G14" s="8">
+        <v>92.361107926515615</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="E15" s="9">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2322.1587500000005</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1767.9921024409068</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1767.9921024409068</v>
-      </c>
-      <c r="H13" s="4">
-        <v>19.142170791709834</v>
-      </c>
-      <c r="I13" s="4">
-        <v>4.6926416967747698E-3</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4">
-        <v>554.16664755909369</v>
-      </c>
-      <c r="G14" s="4">
-        <v>92.361107926515615</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2322.1587500000005</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="6" t="s">
+    </row>
+    <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>-253.16576895818574</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="8">
         <v>80.258038161606123</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="8">
         <v>-3.1543976747651836</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="8">
         <v>1.9704488747561991E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="8">
         <v>-449.55011368546502</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="8">
         <v>-56.781424230906481</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="8">
         <v>-449.55011368546502</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="8">
         <v>-56.781424230906481</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="9">
         <v>3.8394338600075044</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="9">
         <v>0.87754944767454546</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="9">
         <v>4.3751766583430474</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="9">
         <v>4.6926416967747664E-3</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="9">
         <v>1.6921477165269367</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="9">
         <v>5.9867200034880721</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="9">
         <v>1.6921477165269367</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="9">
         <v>5.9867200034880721</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chapter2/Chapter2-1b.xlsx
+++ b/chapter2/Chapter2-1b.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="temp-sale" sheetId="1" r:id="rId1"/>
     <sheet name="LeastSquareApproximation" sheetId="2" r:id="rId2"/>
-    <sheet name="LINEST" sheetId="3" r:id="rId3"/>
+    <sheet name="SLOPE" sheetId="3" r:id="rId3"/>
     <sheet name="DataAnalysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1993,13 +1993,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -2032,11 +2031,12 @@
         <v>90.2</v>
       </c>
       <c r="C3" s="6">
-        <f t="array" ref="C3:D3">LINEST(B2:B9,A2:A9,TRUE,TRUE)</f>
-        <v>3.8394338600075044</v>
+        <f>SLOPE(B2:B9, A2:A9)</f>
+        <v>3.8394338600075053</v>
       </c>
       <c r="D3" s="6">
-        <v>-253.16576895818574</v>
+        <f>INTERCEPT(B2:B9, A2:A9)</f>
+        <v>-253.16576895818579</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -2046,6 +2046,8 @@
       <c r="B4" s="6">
         <v>81.099999999999994</v>
       </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -2054,6 +2056,8 @@
       <c r="B5" s="6">
         <v>83</v>
       </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -2062,6 +2066,8 @@
       <c r="B6" s="6">
         <v>90.9</v>
       </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -2070,6 +2076,8 @@
       <c r="B7" s="6">
         <v>119</v>
       </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -2078,6 +2086,8 @@
       <c r="B8" s="6">
         <v>94.9</v>
       </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2086,6 +2096,8 @@
       <c r="B9" s="6">
         <v>132.4</v>
       </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
